--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="4275" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="4275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
   <si>
     <t>SPMP</t>
   </si>
@@ -237,6 +237,24 @@
   </si>
   <si>
     <t>Entrega Final</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]Component ModelV0.0.0</t>
+  </si>
+  <si>
+    <t>bpm</t>
+  </si>
+  <si>
+    <t>DiagramaComponentes</t>
+  </si>
+  <si>
+    <t>0.0.0</t>
+  </si>
+  <si>
+    <t>Alimnova®</t>
+  </si>
+  <si>
+    <t>Organización</t>
   </si>
 </sst>
 </file>
@@ -415,7 +433,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -495,19 +513,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9"/>
-      </left>
-      <right style="thin">
-        <color theme="9"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="9"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -641,6 +646,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -649,7 +699,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -734,15 +784,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -753,22 +803,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -779,29 +814,49 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,15 +868,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -829,11 +880,11 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -850,39 +901,67 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1087,8 +1166,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C16:I29" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C16:I29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I31" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C17:I31">
     <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="C17:I24">
@@ -1476,12 +1555,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:L29"/>
+  <dimension ref="C3:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5100" topLeftCell="A22" activePane="bottomLeft"/>
-      <selection activeCell="D7" sqref="D7"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <pane ySplit="5100" topLeftCell="A18" activePane="bottomLeft"/>
+      <selection activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1489,7 +1568,7 @@
     <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="56.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1502,13 +1581,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12">
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
@@ -1519,11 +1598,11 @@
       <c r="D4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="3:12">
       <c r="C5" s="52"/>
@@ -1537,170 +1616,159 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="3:12">
-      <c r="C6" s="53"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="3:12">
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="3:12">
-      <c r="C8" s="52"/>
-      <c r="D8" s="32" t="s">
+      <c r="C8" s="79"/>
+      <c r="D8" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="3:12">
-      <c r="C9" s="52"/>
-      <c r="D9" s="33" t="s">
+      <c r="C9" s="79"/>
+      <c r="D9" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="3:12">
-      <c r="C10" s="52"/>
-      <c r="D10" s="34" t="s">
+      <c r="C10" s="79"/>
+      <c r="D10" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="3:12">
-      <c r="C11" s="52"/>
-      <c r="D11" s="35" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
     </row>
     <row r="12" spans="3:12">
-      <c r="C12" s="53"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="79"/>
+      <c r="D12" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
     </row>
     <row r="13" spans="3:12">
-      <c r="E13" s="37"/>
-    </row>
-    <row r="15" spans="3:12">
-      <c r="C15" s="59" t="s">
+      <c r="C13" s="80"/>
+      <c r="D13" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="C14" s="71"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="16" spans="3:12">
+      <c r="C16" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-    </row>
-    <row r="16" spans="3:12">
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="3:9">
-      <c r="C17" s="8" t="s">
+    <row r="18" spans="3:9">
+      <c r="C18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G18" s="12">
         <v>40284.370833333334</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H18" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I18" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:9">
-      <c r="C18" s="6" t="s">
+    <row r="19" spans="3:9">
+      <c r="C19" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="14">
-        <v>40284.370138888888</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9">
-      <c r="C19" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>41</v>
@@ -1723,65 +1791,65 @@
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="9" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20" s="14">
-        <v>40280.546527777777</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>13</v>
+        <v>40284.370138888888</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="3:9">
-      <c r="C21" s="6" t="s">
-        <v>34</v>
+      <c r="C21" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="14">
-        <v>40280.281944444447</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>33</v>
+        <v>40280.546527777777</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="3:9">
-      <c r="C22" s="9" t="s">
-        <v>37</v>
+      <c r="C22" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="14">
-        <v>40280.063194444447</v>
+        <v>40280.281944444447</v>
       </c>
       <c r="H22" s="23" t="s">
         <v>33</v>
@@ -1791,14 +1859,14 @@
       </c>
     </row>
     <row r="23" spans="3:9">
-      <c r="C23" s="6" t="s">
-        <v>32</v>
+      <c r="C23" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>31</v>
@@ -1815,7 +1883,7 @@
     </row>
     <row r="24" spans="3:9">
       <c r="C24" s="6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>41</v>
@@ -1824,10 +1892,10 @@
         <v>9</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24" s="14">
-        <v>40279.646527777775</v>
+        <v>40280.063194444447</v>
       </c>
       <c r="H24" s="23" t="s">
         <v>33</v>
@@ -1837,23 +1905,23 @@
       </c>
     </row>
     <row r="25" spans="3:9">
-      <c r="C25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>40</v>
+      <c r="C25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="29">
-        <v>40278.826388888891</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="G25" s="14">
+        <v>40279.646527777775</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>1</v>
@@ -1861,19 +1929,19 @@
     </row>
     <row r="26" spans="3:9">
       <c r="C26" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>55</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="14">
-        <v>40279.744444444441</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="29">
+        <v>40278.826388888891</v>
       </c>
       <c r="H26" s="31" t="s">
         <v>14</v>
@@ -1884,22 +1952,22 @@
     </row>
     <row r="27" spans="3:9">
       <c r="C27" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="14">
-        <v>40280.754861111112</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>33</v>
+        <v>40279.744444444441</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>1</v>
@@ -1907,19 +1975,19 @@
     </row>
     <row r="28" spans="3:9">
       <c r="C28" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="G28" s="14">
-        <v>40280.749305555553</v>
+        <v>40280.754861111112</v>
       </c>
       <c r="H28" s="23" t="s">
         <v>33</v>
@@ -1930,25 +1998,71 @@
     </row>
     <row r="29" spans="3:9">
       <c r="C29" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G29" s="14">
-        <v>40280.682638888888</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>13</v>
+        <v>40280.749305555553</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="I29" s="16" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="14">
+        <v>40280.682638888888</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="29">
+        <v>40290.779166666667</v>
+      </c>
+      <c r="H31" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" s="67" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1957,25 +2071,27 @@
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C7:C13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H17:H18" location="'1. Documentos'!J9" display="William Jiménez"/>
+    <hyperlink ref="H18:H19" location="'1. Documentos'!J9" display="William Jiménez"/>
     <hyperlink ref="D12" location="'1. Documentos'!J11" display="David Suárez"/>
     <hyperlink ref="D11" location="'1. Documentos'!J10" display="Germán Morales"/>
     <hyperlink ref="D9" location="'1. Documentos'!J8" display="Andrea Fajardo"/>
     <hyperlink ref="D8" location="'1. Documentos'!J7" display="Nestor Diazgranados"/>
     <hyperlink ref="D7" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="D10" location="'1. Documentos'!J9" display="William Jiménez"/>
-    <hyperlink ref="H25" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H26" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H27" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="D13" location="'1. Documentos'!D13" display="Alimnova®"/>
+    <hyperlink ref="H31" location="'1. Documentos'!D13" display="Alimnova®"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -1989,7 +2105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+    <sheetView topLeftCell="C3" workbookViewId="0">
       <pane ySplit="3000" topLeftCell="A12" activePane="bottomLeft"/>
       <selection activeCell="A11" sqref="A11"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
@@ -2015,62 +2131,62 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="H3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="46" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="44">
         <v>0.05</v>
       </c>
       <c r="H4"/>
       <c r="J4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="67"/>
-      <c r="B5" s="70" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="66"/>
-      <c r="D5" s="49">
+      <c r="D5" s="44">
         <v>0.2</v>
       </c>
       <c r="H5"/>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="67"/>
-      <c r="B6" s="71" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="66"/>
-      <c r="D6" s="49">
+      <c r="D6" s="44">
         <v>0.25</v>
       </c>
       <c r="H6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="67"/>
-      <c r="B7" s="72" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="49" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="66"/>
-      <c r="D7" s="49">
+      <c r="D7" s="44">
         <v>0.5</v>
       </c>
       <c r="H7"/>
@@ -2085,14 +2201,14 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="E11" s="24" t="s">
@@ -2113,13 +2229,13 @@
       <c r="J11" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="L11" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="47" t="s">
+      <c r="N11" s="42" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2133,90 +2249,90 @@
       <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="34">
         <v>40240.918749999997</v>
       </c>
       <c r="I12" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="35">
         <v>1</v>
       </c>
-      <c r="L12" s="42" t="s">
+      <c r="L12" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="41">
         <v>1</v>
       </c>
-      <c r="N12" s="48">
+      <c r="N12" s="43">
         <f>SUM(M12)*D4/1</f>
         <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="34">
         <v>40286.407638888886</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="35">
         <v>0.85</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="L13" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13" s="41">
         <v>0.85</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="43">
         <f>SUM(M13)*D5/1</f>
         <v>0.17</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
       <c r="I14"/>
-      <c r="J14" s="40"/>
-      <c r="L14" s="44" t="s">
+      <c r="J14" s="35"/>
+      <c r="L14" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="46"/>
-      <c r="N14" s="48"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="L15" s="68" t="s">
+      <c r="L15" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="M15" s="46"/>
-      <c r="N15" s="48"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="L16" s="63" t="s">
+      <c r="L16" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="64">
+      <c r="M16" s="63">
         <f>SUM(N12:N15)</f>
         <v>0.22000000000000003</v>
       </c>
-      <c r="N16" s="64"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="12:14">
-      <c r="L17" s="63"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="80">
   <si>
     <t>SPMP</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>Organización</t>
+  </si>
+  <si>
+    <t>SRS[Alimnova]DescripciónRequerimientosFuncionalesV1.1.0</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>SRS[Alimnova]EncuestasAnalisisRequerimientosV1.1.0</t>
   </si>
 </sst>
 </file>
@@ -857,6 +866,42 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -898,6 +943,18 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -915,54 +972,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1166,8 +1175,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I31" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C17:I31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I33" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C17:I33">
     <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="C17:I24">
@@ -1497,30 +1506,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:9" ht="15" customHeight="1">
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="4:9" ht="15" customHeight="1">
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="4:9" ht="15" customHeight="1">
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="4:9">
       <c r="D4" t="s">
@@ -1555,12 +1564,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:L31"/>
+  <dimension ref="C3:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <pane ySplit="5100" topLeftCell="A18" activePane="bottomLeft"/>
-      <selection activeCell="I2" sqref="I2"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="5100" topLeftCell="A15" activePane="bottomLeft"/>
+      <selection activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1581,31 +1590,31 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12">
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="3:12">
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="62" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
     </row>
     <row r="5" spans="3:12">
-      <c r="C5" s="52"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="16" t="s">
         <v>1</v>
       </c>
@@ -1616,109 +1625,109 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="3:12">
-      <c r="C6" s="52"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
     </row>
     <row r="7" spans="3:12">
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="8" spans="3:12">
-      <c r="C8" s="79"/>
-      <c r="D8" s="73" t="s">
+      <c r="C8" s="73"/>
+      <c r="D8" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="9" spans="3:12">
-      <c r="C9" s="79"/>
-      <c r="D9" s="74" t="s">
+      <c r="C9" s="73"/>
+      <c r="D9" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="3:12">
-      <c r="C10" s="79"/>
-      <c r="D10" s="75" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
     </row>
     <row r="11" spans="3:12">
-      <c r="C11" s="79"/>
-      <c r="D11" s="76" t="s">
+      <c r="C11" s="73"/>
+      <c r="D11" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
     </row>
     <row r="12" spans="3:12">
-      <c r="C12" s="79"/>
-      <c r="D12" s="77" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
     </row>
     <row r="13" spans="3:12">
-      <c r="C13" s="80"/>
-      <c r="D13" s="68" t="s">
+      <c r="C13" s="74"/>
+      <c r="D13" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="3:12">
-      <c r="C14" s="71"/>
+      <c r="C14" s="54"/>
       <c r="E14" s="32"/>
     </row>
     <row r="16" spans="3:12">
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="5" t="s">
@@ -2058,12 +2067,56 @@
       <c r="G31" s="29">
         <v>40290.779166666667</v>
       </c>
-      <c r="H31" s="68" t="s">
+      <c r="H31" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="67" t="s">
+      <c r="I31" s="50" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="29">
+        <v>40292.777083333334</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="14">
+        <v>40292.777083333334</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2092,6 +2145,8 @@
     <hyperlink ref="H27" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="D13" location="'1. Documentos'!D13" display="Alimnova®"/>
     <hyperlink ref="H31" location="'1. Documentos'!D13" display="Alimnova®"/>
+    <hyperlink ref="H32" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H33" location="'1. Documentos'!J6" display="Laura Arias"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -2131,23 +2186,23 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="H3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="79" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="80" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="44">
@@ -2157,11 +2212,11 @@
       <c r="J4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="65"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="66"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="44">
         <v>0.2</v>
       </c>
@@ -2169,11 +2224,11 @@
       <c r="J5"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="65"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="44">
         <v>0.25</v>
       </c>
@@ -2181,11 +2236,11 @@
       <c r="J6"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="65"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="44">
         <v>0.5</v>
       </c>
@@ -2201,14 +2256,14 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="E11" s="24" t="s">
@@ -2320,19 +2375,19 @@
       <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="L16" s="62" t="s">
+      <c r="L16" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="63">
+      <c r="M16" s="77">
         <f>SUM(N12:N15)</f>
         <v>0.22000000000000003</v>
       </c>
-      <c r="N16" s="63"/>
+      <c r="N16" s="77"/>
     </row>
     <row r="17" spans="12:14">
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
   <si>
     <t>SPMP</t>
   </si>
@@ -264,6 +264,16 @@
   </si>
   <si>
     <t>SRS[Alimnova]EncuestasAnalisisRequerimientosV1.1.0</t>
+  </si>
+  <si>
+    <t>SPMP[Alimnova]EspecificacionCasosUsoV0.5.3</t>
+  </si>
+  <si>
+    <t>0.5.3</t>
+  </si>
+  <si>
+    <t>Nestor Diazgranados
+William Jiménez</t>
   </si>
 </sst>
 </file>
@@ -708,7 +718,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -972,6 +982,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -979,40 +1004,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="9"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -1115,6 +1106,40 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="9"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1175,35 +1200,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I33" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C17:I33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I34" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="C17:I34">
     <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nombre" dataDxfId="10"/>
-    <tableColumn id="2" name="Formato" dataDxfId="9"/>
-    <tableColumn id="3" name="Carpeta" dataDxfId="8"/>
-    <tableColumn id="4" name="Versión" dataDxfId="7"/>
-    <tableColumn id="5" name="Fecha de Modificación" dataDxfId="6"/>
-    <tableColumn id="6" name="Responsable" dataDxfId="5"/>
-    <tableColumn id="7" name="Entregable" dataDxfId="4"/>
+    <tableColumn id="1" name="Nombre" dataDxfId="7"/>
+    <tableColumn id="2" name="Formato" dataDxfId="6"/>
+    <tableColumn id="3" name="Carpeta" dataDxfId="5"/>
+    <tableColumn id="4" name="Versión" dataDxfId="4"/>
+    <tableColumn id="5" name="Fecha de Modificación" dataDxfId="3"/>
+    <tableColumn id="6" name="Responsable" dataDxfId="2"/>
+    <tableColumn id="7" name="Hito" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="E11:J13" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="E11:J13" totalsRowShown="0" headerRowDxfId="11">
   <tableColumns count="6">
     <tableColumn id="1" name="Nombre"/>
     <tableColumn id="2" name="Carpeta"/>
     <tableColumn id="3" name="Versión"/>
-    <tableColumn id="4" name="Fecha de modificación" dataDxfId="2"/>
-    <tableColumn id="6" name="Hito" dataDxfId="1"/>
-    <tableColumn id="5" name="Avance" dataDxfId="0"/>
+    <tableColumn id="4" name="Fecha de modificación" dataDxfId="10"/>
+    <tableColumn id="6" name="Hito" dataDxfId="9"/>
+    <tableColumn id="5" name="Avance" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1564,12 +1589,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:L33"/>
+  <dimension ref="C3:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="5100" topLeftCell="A15" activePane="bottomLeft"/>
-      <selection activeCell="D7" sqref="D7"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <pane ySplit="5100" topLeftCell="A29" activePane="bottomLeft"/>
+      <selection activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1580,8 +1605,8 @@
     <col min="5" max="5" width="34.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="47.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1749,7 +1774,7 @@
         <v>12</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="3:9">
@@ -2116,7 +2141,35 @@
       <c r="H33" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="50"/>
+      <c r="I33" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="30">
+      <c r="C34" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="29">
+        <v>40292.78402777778</v>
+      </c>
+      <c r="H34" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="H35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2147,6 +2200,7 @@
     <hyperlink ref="H31" location="'1. Documentos'!D13" display="Alimnova®"/>
     <hyperlink ref="H32" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H33" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H34" location="'1. Documentos'!J7" display="Nestor Diazgranados"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="86">
   <si>
     <t>SPMP</t>
   </si>
@@ -274,6 +274,15 @@
   <si>
     <t>Nestor Diazgranados
 William Jiménez</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]LineaBaseV0.1.0</t>
+  </si>
+  <si>
+    <t>SDD Documento SDD</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
   </si>
 </sst>
 </file>
@@ -912,6 +921,21 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -982,21 +1006,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1004,6 +1013,40 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="9"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -1106,40 +1149,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="9"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1200,35 +1209,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I34" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="C17:I34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I35" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C17:I35">
     <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nombre" dataDxfId="7"/>
-    <tableColumn id="2" name="Formato" dataDxfId="6"/>
-    <tableColumn id="3" name="Carpeta" dataDxfId="5"/>
-    <tableColumn id="4" name="Versión" dataDxfId="4"/>
-    <tableColumn id="5" name="Fecha de Modificación" dataDxfId="3"/>
-    <tableColumn id="6" name="Responsable" dataDxfId="2"/>
-    <tableColumn id="7" name="Hito" dataDxfId="1"/>
+    <tableColumn id="1" name="Nombre" dataDxfId="10"/>
+    <tableColumn id="2" name="Formato" dataDxfId="9"/>
+    <tableColumn id="3" name="Carpeta" dataDxfId="8"/>
+    <tableColumn id="4" name="Versión" dataDxfId="7"/>
+    <tableColumn id="5" name="Fecha de Modificación" dataDxfId="6"/>
+    <tableColumn id="6" name="Responsable" dataDxfId="5"/>
+    <tableColumn id="7" name="Hito" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="E11:J13" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="E11:J13" totalsRowShown="0" headerRowDxfId="3">
   <tableColumns count="6">
     <tableColumn id="1" name="Nombre"/>
     <tableColumn id="2" name="Carpeta"/>
     <tableColumn id="3" name="Versión"/>
-    <tableColumn id="4" name="Fecha de modificación" dataDxfId="10"/>
-    <tableColumn id="6" name="Hito" dataDxfId="9"/>
-    <tableColumn id="5" name="Avance" dataDxfId="8"/>
+    <tableColumn id="4" name="Fecha de modificación" dataDxfId="2"/>
+    <tableColumn id="6" name="Hito" dataDxfId="1"/>
+    <tableColumn id="5" name="Avance" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1531,30 +1540,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:9" ht="15" customHeight="1">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="4:9" ht="15" customHeight="1">
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="4:9" ht="15" customHeight="1">
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="4:9">
       <c r="D4" t="s">
@@ -1591,10 +1600,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="5100" topLeftCell="A29" activePane="bottomLeft"/>
-      <selection activeCell="I7" sqref="I7"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33:I33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="5100" topLeftCell="A30" activePane="bottomLeft"/>
+      <selection activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1615,31 +1624,31 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12">
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="3:12">
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="66" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
     </row>
     <row r="5" spans="3:12">
-      <c r="C5" s="63"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="16" t="s">
         <v>1</v>
       </c>
@@ -1650,86 +1659,86 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="3:12">
-      <c r="C6" s="63"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
     </row>
     <row r="7" spans="3:12">
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="76" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
     </row>
     <row r="8" spans="3:12">
-      <c r="C8" s="73"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
     </row>
     <row r="9" spans="3:12">
-      <c r="C9" s="73"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
     </row>
     <row r="10" spans="3:12">
-      <c r="C10" s="73"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
     </row>
     <row r="11" spans="3:12">
-      <c r="C11" s="73"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
     </row>
     <row r="12" spans="3:12">
-      <c r="C12" s="73"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
     </row>
     <row r="13" spans="3:12">
-      <c r="C13" s="74"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="51" t="s">
         <v>75</v>
       </c>
@@ -1744,15 +1753,15 @@
       <c r="E14" s="32"/>
     </row>
     <row r="16" spans="3:12">
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="5" t="s">
@@ -2146,10 +2155,10 @@
       </c>
     </row>
     <row r="34" spans="3:9" ht="30">
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="82" t="s">
+      <c r="D34" s="62" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="21" t="s">
@@ -2161,15 +2170,35 @@
       <c r="G34" s="29">
         <v>40292.78402777778</v>
       </c>
-      <c r="H34" s="81" t="s">
+      <c r="H34" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="I34" s="84" t="s">
+      <c r="I34" s="64" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="3:9">
-      <c r="H35"/>
+      <c r="C35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="29">
+        <v>40292.810416666667</v>
+      </c>
+      <c r="H35" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="64" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2201,6 +2230,7 @@
     <hyperlink ref="H32" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H33" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H34" location="'1. Documentos'!J7" display="Nestor Diazgranados"/>
+    <hyperlink ref="H35" location="'1. Documentos'!J6" display="Laura Arias"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -2240,23 +2270,23 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
       <c r="H3"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="83" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="84" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="44">
@@ -2266,11 +2296,11 @@
       <c r="J4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="79"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="80"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="44">
         <v>0.2</v>
       </c>
@@ -2278,11 +2308,11 @@
       <c r="J5"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="79"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="44">
         <v>0.25</v>
       </c>
@@ -2290,11 +2320,11 @@
       <c r="J6"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="79"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="44">
         <v>0.5</v>
       </c>
@@ -2310,14 +2340,14 @@
       <c r="J9"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="E11" s="24" t="s">
@@ -2429,19 +2459,19 @@
       <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="L16" s="76" t="s">
+      <c r="L16" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="77">
+      <c r="M16" s="81">
         <f>SUM(N12:N15)</f>
         <v>0.22000000000000003</v>
       </c>
-      <c r="N16" s="77"/>
+      <c r="N16" s="81"/>
     </row>
     <row r="17" spans="12:14">
-      <c r="L17" s="76"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="88">
   <si>
     <t>SPMP</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>0.1.0</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]LineaBaseV0.2.0</t>
   </si>
 </sst>
 </file>
@@ -1209,8 +1215,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I35" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C17:I35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I36" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C17:I36">
     <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="C17:I24">
@@ -1598,12 +1604,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:L35"/>
+  <dimension ref="C3:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
       <pane ySplit="5100" topLeftCell="A30" activePane="bottomLeft"/>
       <selection activeCell="D7" sqref="D7"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2197,6 +2203,29 @@
         <v>14</v>
       </c>
       <c r="I35" s="64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="29">
+        <v>40293.631944444445</v>
+      </c>
+      <c r="H36" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="64" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2231,6 +2260,7 @@
     <hyperlink ref="H33" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H34" location="'1. Documentos'!J7" display="Nestor Diazgranados"/>
     <hyperlink ref="H35" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H36" location="'1. Documentos'!J6" display="Laura Arias"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
   <si>
     <t>SPMP</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>SDD[Alimnova]LineaBaseV0.2.0</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]diagramaClasesV0.2.0</t>
+  </si>
+  <si>
+    <t>eap</t>
+  </si>
+  <si>
+    <t>DiagramaClases</t>
   </si>
 </sst>
 </file>
@@ -1215,8 +1224,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I36" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C17:I36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I37" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C17:I37">
     <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="C17:I24">
@@ -1604,12 +1613,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:L36"/>
+  <dimension ref="C3:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane ySplit="5100" topLeftCell="A30" activePane="bottomLeft"/>
-      <selection activeCell="D7" sqref="D7"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <selection activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2226,6 +2235,29 @@
         <v>14</v>
       </c>
       <c r="I36" s="64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="29">
+        <v>40293.865972222222</v>
+      </c>
+      <c r="H37" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2261,6 +2293,7 @@
     <hyperlink ref="H34" location="'1. Documentos'!J7" display="Nestor Diazgranados"/>
     <hyperlink ref="H35" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H36" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H37" location="'1. Documentos'!J9" display="William Jiménez"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="95">
   <si>
     <t>SPMP</t>
   </si>
@@ -298,6 +298,18 @@
   </si>
   <si>
     <t>DiagramaClases</t>
+  </si>
+  <si>
+    <t>SPMP[Alimnova]EspecificacionCasosUsoV0.6.0</t>
+  </si>
+  <si>
+    <t>0.6.0</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]DiagramasSubastarV0.0.0</t>
+  </si>
+  <si>
+    <t>DiagramasSubastar</t>
   </si>
 </sst>
 </file>
@@ -1224,8 +1236,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I37" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C17:I37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I39" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C17:I39">
     <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="C17:I24">
@@ -1613,12 +1625,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:L37"/>
+  <dimension ref="C3:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="5100" topLeftCell="A30" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <pane ySplit="5100" topLeftCell="A32" activePane="bottomLeft"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2258,6 +2270,52 @@
         <v>13</v>
       </c>
       <c r="I37" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="29">
+        <v>40293.871527777781</v>
+      </c>
+      <c r="H38" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="C39" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="29">
+        <v>40293.984027777777</v>
+      </c>
+      <c r="H39" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2294,6 +2352,8 @@
     <hyperlink ref="H35" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H36" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H37" location="'1. Documentos'!J9" display="William Jiménez"/>
+    <hyperlink ref="H38" location="'1. Documentos'!J9" display="William Jiménez"/>
+    <hyperlink ref="H39" location="'1. Documentos'!J9" display="William Jiménez"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="96">
   <si>
     <t>SPMP</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>DiagramasSubastar</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]diagramaComponentesV0.2.0</t>
   </si>
 </sst>
 </file>
@@ -1236,8 +1239,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I39" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C17:I39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I40" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C17:I40">
     <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="C17:I24">
@@ -1625,12 +1628,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:L39"/>
+  <dimension ref="C3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <pane ySplit="5100" topLeftCell="A32" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <pane ySplit="5100" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2316,6 +2319,29 @@
         <v>13</v>
       </c>
       <c r="I39" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="C40" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="29">
+        <v>40294.338888888888</v>
+      </c>
+      <c r="H40" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2354,6 +2380,7 @@
     <hyperlink ref="H37" location="'1. Documentos'!J9" display="William Jiménez"/>
     <hyperlink ref="H38" location="'1. Documentos'!J9" display="William Jiménez"/>
     <hyperlink ref="H39" location="'1. Documentos'!J9" display="William Jiménez"/>
+    <hyperlink ref="H40" location="'1. Documentos'!J9" display="William Jiménez"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="97">
   <si>
     <t>SPMP</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>SDD[Alimnova]diagramaComponentesV0.2.0</t>
+  </si>
+  <si>
+    <t>0.5.0</t>
   </si>
 </sst>
 </file>
@@ -1239,8 +1242,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I40" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C17:I40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I41" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C17:I41">
     <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="C17:I24">
@@ -1628,12 +1631,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:L40"/>
+  <dimension ref="C3:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <pane ySplit="5100" topLeftCell="A34" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <pane ySplit="5100" topLeftCell="A35" activePane="bottomLeft"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2342,6 +2345,29 @@
         <v>13</v>
       </c>
       <c r="I40" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9">
+      <c r="C41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="29">
+        <v>40294.449305555558</v>
+      </c>
+      <c r="H41" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="64" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2381,6 +2407,7 @@
     <hyperlink ref="H38" location="'1. Documentos'!J9" display="William Jiménez"/>
     <hyperlink ref="H39" location="'1. Documentos'!J9" display="William Jiménez"/>
     <hyperlink ref="H40" location="'1. Documentos'!J9" display="William Jiménez"/>
+    <hyperlink ref="H41" location="'1. Documentos'!J6" display="Laura Arias"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="4275" activeTab="1"/>
@@ -18,12 +18,12 @@
     <definedName name="_xlnm.Criteria" localSheetId="1">'1. Documentos'!#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">'2. Aplicación'!$O$11:$O$12</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="106">
   <si>
     <t>SPMP</t>
   </si>
@@ -316,6 +316,33 @@
   </si>
   <si>
     <t>0.5.0</t>
+  </si>
+  <si>
+    <t>SRS[Alimnova]DescripciónRequerimientosFuncionalesV1.1.1</t>
+  </si>
+  <si>
+    <t>SRS SRS Documento</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>SRS[Alimnova]DescripcionReqNoFuncionalesV1.1.1</t>
+  </si>
+  <si>
+    <t>SRS[Alimnova]TrazabilidadRequerimientosV1.0.1</t>
+  </si>
+  <si>
+    <t>SRS Trazabilidad</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>SRS[Alimnova]EncuestasReqNoFuncionalesV1.0.0</t>
+  </si>
+  <si>
+    <t>SRS Listas de Chequeo</t>
   </si>
 </sst>
 </file>
@@ -1242,8 +1269,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I41" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C17:I41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I45" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C17:I45">
     <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="C17:I24">
@@ -1631,12 +1658,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:L41"/>
+  <dimension ref="C3:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <pane ySplit="5100" topLeftCell="A35" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="5100" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2369,6 +2396,98 @@
       </c>
       <c r="I41" s="64" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9">
+      <c r="C42" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="29">
+        <v>40294.841666666667</v>
+      </c>
+      <c r="H42" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9">
+      <c r="C43" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="29">
+        <v>40294.841666666667</v>
+      </c>
+      <c r="H43" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="C44" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="29">
+        <v>40294.841666666667</v>
+      </c>
+      <c r="H44" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="C45" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="29">
+        <v>40294.841666666667</v>
+      </c>
+      <c r="H45" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2408,6 +2527,10 @@
     <hyperlink ref="H39" location="'1. Documentos'!J9" display="William Jiménez"/>
     <hyperlink ref="H40" location="'1. Documentos'!J9" display="William Jiménez"/>
     <hyperlink ref="H41" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H42" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H43" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H44" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H45" location="'1. Documentos'!J6" display="Laura Arias"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="4275" activeTab="1"/>
@@ -18,12 +18,12 @@
     <definedName name="_xlnm.Criteria" localSheetId="1">'1. Documentos'!#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">'2. Aplicación'!$O$11:$O$12</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="108">
   <si>
     <t>SPMP</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>SRS Listas de Chequeo</t>
+  </si>
+  <si>
+    <t>SRS[Alimnova]EncuestasReqNoFuncionalesV1.1.0</t>
+  </si>
+  <si>
+    <t>xlss</t>
   </si>
 </sst>
 </file>
@@ -1269,8 +1275,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I45" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C17:I45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I46" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C17:I46">
     <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="C17:I24">
@@ -1658,12 +1664,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:L45"/>
+  <dimension ref="C3:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="5100" topLeftCell="A37" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <pane ySplit="5100" topLeftCell="A39" activePane="bottomLeft"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2487,6 +2493,29 @@
         <v>14</v>
       </c>
       <c r="I45" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9">
+      <c r="C46" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="29">
+        <v>40291.96875</v>
+      </c>
+      <c r="H46" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2531,6 +2560,7 @@
     <hyperlink ref="H43" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H44" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H45" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H46" location="'1. Documentos'!J9" display="William Jiménez"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="4275" activeTab="1"/>
@@ -18,12 +18,12 @@
     <definedName name="_xlnm.Criteria" localSheetId="1">'1. Documentos'!#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">'2. Aplicación'!$O$11:$O$12</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144315"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="114">
   <si>
     <t>SPMP</t>
   </si>
@@ -349,13 +349,34 @@
   </si>
   <si>
     <t>xlss</t>
+  </si>
+  <si>
+    <t>SRS[Alimnova]EncuestasReqNoFuncionalesV1.2.0</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
+  </si>
+  <si>
+    <t>SRS(Alimnova)ListaChequeoRequerimientosv1.1.0</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]diagramaClasesV0.3.0</t>
+  </si>
+  <si>
+    <t>DiagramasCrearPartida</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]DiagramasSubastarV0.1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,7 +814,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1072,6 +1093,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1081,10 +1110,10 @@
   <dxfs count="12">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
       <fill>
         <gradientFill>
           <stop position="0">
@@ -1095,7 +1124,7 @@
           </stop>
         </gradientFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4"/>
@@ -1111,10 +1140,10 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1127,7 +1156,7 @@
           </stop>
         </gradientFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="9"/>
@@ -1151,7 +1180,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="9"/>
@@ -1169,14 +1198,14 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border outline="0">
         <right style="thin">
           <color theme="9"/>
@@ -1191,7 +1220,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -1201,11 +1230,11 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -1215,10 +1244,15 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1275,10 +1309,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I46" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C17:I46">
-    <filterColumn colId="6"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I51" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C17:I51"/>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
@@ -1320,34 +1352,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1F497D" mc:Ignorable=""/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="EEECE1" mc:Ignorable=""/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4F81BD" mc:Ignorable=""/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0504D" mc:Ignorable=""/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="9BBB59" mc:Ignorable=""/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="8064A2" mc:Ignorable=""/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4BACC6" mc:Ignorable=""/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="F79646" mc:Ignorable=""/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable=""/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="800080" mc:Ignorable=""/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -1384,6 +1416,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1418,6 +1451,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1499,7 +1533,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -1508,7 +1542,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -1517,7 +1551,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -1593,19 +1627,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" ht="15" customHeight="1">
+    <row r="1" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="65" t="s">
         <v>43</v>
       </c>
@@ -1615,7 +1649,7 @@
       <c r="H1" s="65"/>
       <c r="I1" s="65"/>
     </row>
-    <row r="2" spans="4:9" ht="15" customHeight="1">
+    <row r="2" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="65"/>
       <c r="E2" s="65"/>
       <c r="F2" s="65"/>
@@ -1623,7 +1657,7 @@
       <c r="H2" s="65"/>
       <c r="I2" s="65"/>
     </row>
-    <row r="3" spans="4:9" ht="15" customHeight="1">
+    <row r="3" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="65"/>
       <c r="E3" s="65"/>
       <c r="F3" s="65"/>
@@ -1631,17 +1665,17 @@
       <c r="H3" s="65"/>
       <c r="I3" s="65"/>
     </row>
-    <row r="4" spans="4:9">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="4:9">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D5" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="4:9">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D6" s="25" t="s">
         <v>46</v>
       </c>
@@ -1663,16 +1697,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:L46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <pane ySplit="5100" topLeftCell="A39" activePane="bottomLeft"/>
-      <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <pane ySplit="3000" topLeftCell="A37" activePane="bottomLeft"/>
+      <selection activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="56.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1689,7 +1723,7 @@
     <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C3" s="71" t="s">
         <v>28</v>
       </c>
@@ -1700,7 +1734,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="3:12">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="66" t="s">
         <v>6</v>
       </c>
@@ -1713,7 +1747,7 @@
       <c r="F4" s="69"/>
       <c r="G4" s="70"/>
     </row>
-    <row r="5" spans="3:12">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C5" s="67"/>
       <c r="D5" s="16" t="s">
         <v>1</v>
@@ -1724,7 +1758,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="3:12">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" s="67"/>
       <c r="D6" s="17" t="s">
         <v>2</v>
@@ -1735,7 +1769,7 @@
       <c r="F6" s="69"/>
       <c r="G6" s="70"/>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="76" t="s">
         <v>12</v>
       </c>
@@ -1748,7 +1782,7 @@
       <c r="F7" s="75"/>
       <c r="G7" s="75"/>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" s="77"/>
       <c r="D8" s="56" t="s">
         <v>15</v>
@@ -1759,7 +1793,7 @@
       <c r="F8" s="75"/>
       <c r="G8" s="75"/>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="77"/>
       <c r="D9" s="57" t="s">
         <v>16</v>
@@ -1770,7 +1804,7 @@
       <c r="F9" s="75"/>
       <c r="G9" s="75"/>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="77"/>
       <c r="D10" s="58" t="s">
         <v>13</v>
@@ -1781,7 +1815,7 @@
       <c r="F10" s="75"/>
       <c r="G10" s="75"/>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" s="77"/>
       <c r="D11" s="59" t="s">
         <v>17</v>
@@ -1792,7 +1826,7 @@
       <c r="F11" s="75"/>
       <c r="G11" s="75"/>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="77"/>
       <c r="D12" s="60" t="s">
         <v>18</v>
@@ -1803,7 +1837,7 @@
       <c r="F12" s="75"/>
       <c r="G12" s="75"/>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" s="78"/>
       <c r="D13" s="51" t="s">
         <v>75</v>
@@ -1814,11 +1848,11 @@
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" s="54"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="73" t="s">
         <v>3</v>
       </c>
@@ -1829,7 +1863,7 @@
       <c r="H16" s="74"/>
       <c r="I16" s="74"/>
     </row>
-    <row r="17" spans="3:9">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
@@ -1852,7 +1886,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="3:9">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="s">
         <v>8</v>
       </c>
@@ -1875,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:9">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
         <v>36</v>
       </c>
@@ -1898,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:9">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>38</v>
       </c>
@@ -1921,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:9">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="9" t="s">
         <v>29</v>
       </c>
@@ -1944,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:9">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="6" t="s">
         <v>34</v>
       </c>
@@ -1967,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:9">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" s="9" t="s">
         <v>37</v>
       </c>
@@ -1990,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:9">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
         <v>32</v>
       </c>
@@ -2013,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:9">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
@@ -2036,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:9">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
         <v>54</v>
       </c>
@@ -2059,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:9">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="9" t="s">
         <v>56</v>
       </c>
@@ -2082,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:9">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" s="9" t="s">
         <v>57</v>
       </c>
@@ -2105,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:9">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" s="9" t="s">
         <v>60</v>
       </c>
@@ -2128,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:9">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="9" t="s">
         <v>62</v>
       </c>
@@ -2151,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:9">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="9" t="s">
         <v>71</v>
       </c>
@@ -2174,7 +2208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="3:9">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C32" s="6" t="s">
         <v>77</v>
       </c>
@@ -2197,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:9">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" s="6" t="s">
         <v>79</v>
       </c>
@@ -2220,7 +2254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:9" ht="30">
+    <row r="34" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C34" s="63" t="s">
         <v>80</v>
       </c>
@@ -2243,7 +2277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="3:9">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="9" t="s">
         <v>83</v>
       </c>
@@ -2266,7 +2300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:9">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="s">
         <v>87</v>
       </c>
@@ -2289,7 +2323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="3:9">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" s="9" t="s">
         <v>88</v>
       </c>
@@ -2312,7 +2346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="3:9">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="9" t="s">
         <v>91</v>
       </c>
@@ -2335,7 +2369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="3:9">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C39" s="9" t="s">
         <v>93</v>
       </c>
@@ -2358,7 +2392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="3:9">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C40" s="9" t="s">
         <v>95</v>
       </c>
@@ -2381,7 +2415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="3:9">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" s="6" t="s">
         <v>87</v>
       </c>
@@ -2404,7 +2438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="3:9">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="8" t="s">
         <v>97</v>
       </c>
@@ -2427,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:9">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C43" s="8" t="s">
         <v>100</v>
       </c>
@@ -2450,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:9">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C44" s="9" t="s">
         <v>101</v>
       </c>
@@ -2473,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="3:9">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C45" s="9" t="s">
         <v>104</v>
       </c>
@@ -2496,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:9">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C46" s="9" t="s">
         <v>106</v>
       </c>
@@ -2517,6 +2551,121 @@
       </c>
       <c r="I46" s="16" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" s="85">
+        <v>40295.097222222219</v>
+      </c>
+      <c r="H47" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="85">
+        <v>40295.097222222219</v>
+      </c>
+      <c r="H48" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" s="85">
+        <v>40294.208333333336</v>
+      </c>
+      <c r="H49" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="85">
+        <v>40294.208333333336</v>
+      </c>
+      <c r="H50" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" s="85">
+        <v>40295.097222222219</v>
+      </c>
+      <c r="H51" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="50" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2561,9 +2710,13 @@
     <hyperlink ref="H44" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H45" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H46" location="'1. Documentos'!J9" display="William Jiménez"/>
+    <hyperlink ref="H47" location="'1. Documentos'!J7" display="Nestor Diazgranados"/>
+    <hyperlink ref="H48" location="'1. Documentos'!J7" display="Nestor Diazgranados"/>
+    <hyperlink ref="H49:H50" location="'1. Documentos'!J7" display="Nestor Diazgranados"/>
+    <hyperlink ref="H51" location="'1. Documentos'!J7" display="Nestor Diazgranados"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2571,7 +2724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView topLeftCell="C3" workbookViewId="0">
@@ -2580,7 +2733,7 @@
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
@@ -2591,15 +2744,15 @@
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
         <v>51</v>
       </c>
@@ -2609,7 +2762,7 @@
       <c r="H3"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="83" t="s">
         <v>49</v>
       </c>
@@ -2625,7 +2778,7 @@
       <c r="H4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="83"/>
       <c r="B5" s="47" t="s">
         <v>1</v>
@@ -2637,7 +2790,7 @@
       <c r="H5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="83"/>
       <c r="B6" s="48" t="s">
         <v>2</v>
@@ -2649,7 +2802,7 @@
       <c r="H6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="83"/>
       <c r="B7" s="49" t="s">
         <v>70</v>
@@ -2661,15 +2814,15 @@
       <c r="H7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H8"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E10" s="79" t="s">
         <v>47</v>
       </c>
@@ -2679,7 +2832,7 @@
       <c r="I10" s="79"/>
       <c r="J10" s="79"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="24" t="s">
         <v>4</v>
       </c>
@@ -2708,7 +2861,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>64</v>
       </c>
@@ -2738,7 +2891,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E13" s="33" t="s">
         <v>52</v>
       </c>
@@ -2768,7 +2921,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
@@ -2781,14 +2934,14 @@
       <c r="M14" s="41"/>
       <c r="N14" s="43"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L15" s="45" t="s">
         <v>70</v>
       </c>
       <c r="M15" s="41"/>
       <c r="N15" s="43"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L16" s="80" t="s">
         <v>67</v>
       </c>
@@ -2798,7 +2951,7 @@
       </c>
       <c r="N16" s="81"/>
     </row>
-    <row r="17" spans="12:14">
+    <row r="17" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L17" s="80"/>
       <c r="M17" s="81"/>
       <c r="N17" s="81"/>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9114"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="4275" activeTab="1"/>
@@ -14,16 +14,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1. Documentos'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2. Aplicación'!$I$11:$J$13</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="2">'2. Aplicación'!$P$11:$P$12</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">'1. Documentos'!#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">'2. Aplicación'!$O$11:$O$12</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">'2. Aplicación'!$P$11:$P$12</definedName>
   </definedNames>
-  <calcPr calcId="144315"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="121">
   <si>
     <t>SPMP</t>
   </si>
@@ -367,16 +367,34 @@
   </si>
   <si>
     <t>SDD[Alimnova]DiagramasSubastarV0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Fajardo </t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]LineaBaseV0.7.0</t>
+  </si>
+  <si>
+    <t>0.7.0</t>
+  </si>
+  <si>
+    <t>SRS[Alimnova]EncuestasReqNoFuncionalesV1.4.0</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>27/04/2010  20:11:00 p.m</t>
+  </si>
+  <si>
+    <t>27/04/2010  20:21:00 p.m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,6 +1041,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,26 +1120,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
       <fill>
         <gradientFill>
           <stop position="0">
@@ -1124,7 +1142,7 @@
           </stop>
         </gradientFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4"/>
@@ -1140,10 +1158,10 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1156,7 +1174,7 @@
           </stop>
         </gradientFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="9"/>
@@ -1180,7 +1198,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="9"/>
@@ -1198,14 +1216,14 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border outline="0">
         <right style="thin">
           <color theme="9"/>
@@ -1220,7 +1238,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -1230,11 +1248,11 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -1244,7 +1262,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1309,8 +1327,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I51" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C17:I51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I53" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C17:I53"/>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
@@ -1342,7 +1360,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1352,34 +1370,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1F497D" mc:Ignorable=""/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="EEECE1" mc:Ignorable=""/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4F81BD" mc:Ignorable=""/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0504D" mc:Ignorable=""/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="9BBB59" mc:Ignorable=""/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="8064A2" mc:Ignorable=""/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4BACC6" mc:Ignorable=""/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="F79646" mc:Ignorable=""/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable=""/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="800080" mc:Ignorable=""/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -1416,7 +1434,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1451,7 +1468,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1533,7 +1549,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -1542,7 +1558,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -1551,7 +1567,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -1627,55 +1643,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="65" t="s">
+    <row r="1" spans="4:9" ht="15" customHeight="1">
+      <c r="D1" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-    </row>
-    <row r="2" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-    </row>
-    <row r="3" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-    </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+    </row>
+    <row r="2" spans="4:9" ht="15" customHeight="1">
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+    </row>
+    <row r="3" spans="4:9" ht="15" customHeight="1">
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+    </row>
+    <row r="4" spans="4:9">
       <c r="D4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:9">
       <c r="D5" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:9">
       <c r="D6" s="25" t="s">
         <v>46</v>
       </c>
@@ -1697,16 +1713,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:L51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C3:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <pane ySplit="3000" topLeftCell="A37" activePane="bottomLeft"/>
-      <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
+      <pane ySplit="3000" topLeftCell="A40" activePane="bottomLeft"/>
+      <selection activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="56.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1723,32 +1739,32 @@
     <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="71" t="s">
+    <row r="3" spans="3:12">
+      <c r="C3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="66" t="s">
+    <row r="4" spans="3:12">
+      <c r="C4" s="68" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="67"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="69"/>
       <c r="D5" s="16" t="s">
         <v>1</v>
       </c>
@@ -1758,87 +1774,87 @@
       <c r="F5" s="19"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="67"/>
+    <row r="6" spans="3:12">
+      <c r="C6" s="69"/>
       <c r="D6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70"/>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="76" t="s">
+      <c r="F6" s="71"/>
+      <c r="G6" s="72"/>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="78" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="79"/>
       <c r="D8" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" s="79"/>
       <c r="D9" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="79"/>
       <c r="D10" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="C11" s="79"/>
       <c r="D11" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+    </row>
+    <row r="12" spans="3:12">
+      <c r="C12" s="79"/>
       <c r="D12" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="78"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="C13" s="80"/>
       <c r="D13" s="51" t="s">
         <v>75</v>
       </c>
@@ -1848,22 +1864,22 @@
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:12">
       <c r="C14" s="54"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="73" t="s">
+    <row r="16" spans="3:12">
+      <c r="C16" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+    </row>
+    <row r="17" spans="3:9">
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
@@ -1886,7 +1902,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9">
       <c r="C18" s="8" t="s">
         <v>8</v>
       </c>
@@ -1909,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9">
       <c r="C19" s="6" t="s">
         <v>36</v>
       </c>
@@ -1932,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9">
       <c r="C20" s="9" t="s">
         <v>38</v>
       </c>
@@ -1955,7 +1971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:9">
       <c r="C21" s="9" t="s">
         <v>29</v>
       </c>
@@ -1978,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:9">
       <c r="C22" s="6" t="s">
         <v>34</v>
       </c>
@@ -2001,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9">
       <c r="C23" s="9" t="s">
         <v>37</v>
       </c>
@@ -2024,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:9">
       <c r="C24" s="6" t="s">
         <v>32</v>
       </c>
@@ -2047,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:9">
       <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
@@ -2070,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:9">
       <c r="C26" s="9" t="s">
         <v>54</v>
       </c>
@@ -2093,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:9">
       <c r="C27" s="9" t="s">
         <v>56</v>
       </c>
@@ -2116,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:9">
       <c r="C28" s="9" t="s">
         <v>57</v>
       </c>
@@ -2139,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9">
       <c r="C29" s="9" t="s">
         <v>60</v>
       </c>
@@ -2162,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:9">
       <c r="C30" s="9" t="s">
         <v>62</v>
       </c>
@@ -2185,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:9">
       <c r="C31" s="9" t="s">
         <v>71</v>
       </c>
@@ -2208,7 +2224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:9">
       <c r="C32" s="6" t="s">
         <v>77</v>
       </c>
@@ -2231,7 +2247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9">
       <c r="C33" s="6" t="s">
         <v>79</v>
       </c>
@@ -2254,7 +2270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:9" ht="45">
       <c r="C34" s="63" t="s">
         <v>80</v>
       </c>
@@ -2277,7 +2293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:9">
       <c r="C35" s="9" t="s">
         <v>83</v>
       </c>
@@ -2300,7 +2316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:9">
       <c r="C36" s="6" t="s">
         <v>87</v>
       </c>
@@ -2323,7 +2339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9">
       <c r="C37" s="9" t="s">
         <v>88</v>
       </c>
@@ -2346,7 +2362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9">
       <c r="C38" s="9" t="s">
         <v>91</v>
       </c>
@@ -2369,7 +2385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:9">
       <c r="C39" s="9" t="s">
         <v>93</v>
       </c>
@@ -2392,7 +2408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:9">
       <c r="C40" s="9" t="s">
         <v>95</v>
       </c>
@@ -2415,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:9">
       <c r="C41" s="6" t="s">
         <v>87</v>
       </c>
@@ -2438,7 +2454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:9">
       <c r="C42" s="8" t="s">
         <v>97</v>
       </c>
@@ -2461,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:9">
       <c r="C43" s="8" t="s">
         <v>100</v>
       </c>
@@ -2484,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:9">
       <c r="C44" s="9" t="s">
         <v>101</v>
       </c>
@@ -2507,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:9">
       <c r="C45" s="9" t="s">
         <v>104</v>
       </c>
@@ -2530,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:9">
       <c r="C46" s="9" t="s">
         <v>106</v>
       </c>
@@ -2553,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:9">
       <c r="C47" s="9" t="s">
         <v>108</v>
       </c>
@@ -2566,7 +2582,7 @@
       <c r="F47" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G47" s="85">
+      <c r="G47" s="65">
         <v>40295.097222222219</v>
       </c>
       <c r="H47" s="56" t="s">
@@ -2576,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:9">
       <c r="C48" s="9" t="s">
         <v>110</v>
       </c>
@@ -2589,17 +2605,17 @@
       <c r="F48" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G48" s="85">
+      <c r="G48" s="65">
         <v>40295.097222222219</v>
       </c>
-      <c r="H48" s="86" t="s">
+      <c r="H48" s="66" t="s">
         <v>15</v>
       </c>
       <c r="I48" s="50" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:9">
       <c r="C49" s="9" t="s">
         <v>111</v>
       </c>
@@ -2612,7 +2628,7 @@
       <c r="F49" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G49" s="85">
+      <c r="G49" s="65">
         <v>40294.208333333336</v>
       </c>
       <c r="H49" s="56" t="s">
@@ -2622,7 +2638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:9">
       <c r="C50" s="9" t="s">
         <v>93</v>
       </c>
@@ -2635,7 +2651,7 @@
       <c r="F50" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G50" s="85">
+      <c r="G50" s="65">
         <v>40294.208333333336</v>
       </c>
       <c r="H50" s="56" t="s">
@@ -2645,7 +2661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:9">
       <c r="C51" s="9" t="s">
         <v>113</v>
       </c>
@@ -2658,15 +2674,59 @@
       <c r="F51" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G51" s="85">
+      <c r="G51" s="65">
         <v>40295.097222222219</v>
       </c>
-      <c r="H51" s="86" t="s">
+      <c r="H51" s="66" t="s">
         <v>15</v>
       </c>
       <c r="I51" s="50" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="52" spans="3:9">
+      <c r="C52" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G52" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="H52" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I52" s="50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9">
+      <c r="C53" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="H53" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I53" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2724,7 +2784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView topLeftCell="C3" workbookViewId="0">
@@ -2733,7 +2793,7 @@
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
@@ -2744,32 +2804,32 @@
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="H1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="H2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
       <c r="H3"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+    <row r="4" spans="1:14" ht="15" customHeight="1">
+      <c r="A4" s="85" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="86" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="44">
@@ -2778,61 +2838,61 @@
       <c r="H4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+    <row r="5" spans="1:14">
+      <c r="A5" s="85"/>
       <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="84"/>
+      <c r="C5" s="86"/>
       <c r="D5" s="44">
         <v>0.2</v>
       </c>
       <c r="H5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="83"/>
+    <row r="6" spans="1:14">
+      <c r="A6" s="85"/>
       <c r="B6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="84"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="44">
         <v>0.25</v>
       </c>
       <c r="H6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
+    <row r="7" spans="1:14">
+      <c r="A7" s="85"/>
       <c r="B7" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="44">
         <v>0.5</v>
       </c>
       <c r="H7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="H8"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="H9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E10" s="79" t="s">
+    <row r="10" spans="1:14">
+      <c r="E10" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1">
       <c r="E11" s="24" t="s">
         <v>4</v>
       </c>
@@ -2861,7 +2921,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="E12" t="s">
         <v>64</v>
       </c>
@@ -2891,7 +2951,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="E13" s="33" t="s">
         <v>52</v>
       </c>
@@ -2921,7 +2981,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
@@ -2934,27 +2994,27 @@
       <c r="M14" s="41"/>
       <c r="N14" s="43"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="L15" s="45" t="s">
         <v>70</v>
       </c>
       <c r="M15" s="41"/>
       <c r="N15" s="43"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L16" s="80" t="s">
+    <row r="16" spans="1:14">
+      <c r="L16" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="81">
+      <c r="M16" s="83">
         <f>SUM(N12:N15)</f>
         <v>0.22000000000000003</v>
       </c>
-      <c r="N16" s="81"/>
-    </row>
-    <row r="17" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
+      <c r="N16" s="83"/>
+    </row>
+    <row r="17" spans="12:14">
+      <c r="L17" s="82"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="124">
   <si>
     <t>SPMP</t>
   </si>
@@ -388,6 +388,15 @@
   </si>
   <si>
     <t>27/04/2010  20:21:00 p.m</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]LineaBaseV0.7.1</t>
+  </si>
+  <si>
+    <t>0.7.1</t>
+  </si>
+  <si>
+    <t>28/04/2010  05:52:00 p.m</t>
   </si>
 </sst>
 </file>
@@ -1127,40 +1136,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="9"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1262,6 +1237,40 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="9"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1327,33 +1336,33 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I53" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C17:I53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I54" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="C17:I54"/>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nombre" dataDxfId="10"/>
-    <tableColumn id="2" name="Formato" dataDxfId="9"/>
-    <tableColumn id="3" name="Carpeta" dataDxfId="8"/>
-    <tableColumn id="4" name="Versión" dataDxfId="7"/>
-    <tableColumn id="5" name="Fecha de Modificación" dataDxfId="6"/>
-    <tableColumn id="6" name="Responsable" dataDxfId="5"/>
-    <tableColumn id="7" name="Hito" dataDxfId="4"/>
+    <tableColumn id="1" name="Nombre" dataDxfId="7"/>
+    <tableColumn id="2" name="Formato" dataDxfId="6"/>
+    <tableColumn id="3" name="Carpeta" dataDxfId="5"/>
+    <tableColumn id="4" name="Versión" dataDxfId="4"/>
+    <tableColumn id="5" name="Fecha de Modificación" dataDxfId="3"/>
+    <tableColumn id="6" name="Responsable" dataDxfId="2"/>
+    <tableColumn id="7" name="Hito" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="E11:J13" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="E11:J13" totalsRowShown="0" headerRowDxfId="11">
   <tableColumns count="6">
     <tableColumn id="1" name="Nombre"/>
     <tableColumn id="2" name="Carpeta"/>
     <tableColumn id="3" name="Versión"/>
-    <tableColumn id="4" name="Fecha de modificación" dataDxfId="2"/>
-    <tableColumn id="6" name="Hito" dataDxfId="1"/>
-    <tableColumn id="5" name="Avance" dataDxfId="0"/>
+    <tableColumn id="4" name="Fecha de modificación" dataDxfId="10"/>
+    <tableColumn id="6" name="Hito" dataDxfId="9"/>
+    <tableColumn id="5" name="Avance" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1714,12 +1723,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:L53"/>
+  <dimension ref="C3:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
       <pane ySplit="3000" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2727,6 +2736,27 @@
         <v>114</v>
       </c>
       <c r="I53" s="50"/>
+    </row>
+    <row r="54" spans="3:9">
+      <c r="C54" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="H54" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I54" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="129">
   <si>
     <t>SPMP</t>
   </si>
@@ -397,6 +397,21 @@
   </si>
   <si>
     <t>28/04/2010  05:52:00 p.m</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]LineaBaseV0.8.0</t>
+  </si>
+  <si>
+    <t>0.8.0</t>
+  </si>
+  <si>
+    <t>SRS[Alimnova]TrazabilidadRequerimientosV1.1.0</t>
+  </si>
+  <si>
+    <t>28/04/2010  08:53:00 p.m</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]Component ModelV0.2.0</t>
   </si>
 </sst>
 </file>
@@ -1136,6 +1151,40 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <fill>
+        <gradientFill>
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="9"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1237,40 +1286,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="9"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1336,33 +1351,33 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I54" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="C17:I54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I57" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C17:I57"/>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nombre" dataDxfId="7"/>
-    <tableColumn id="2" name="Formato" dataDxfId="6"/>
-    <tableColumn id="3" name="Carpeta" dataDxfId="5"/>
-    <tableColumn id="4" name="Versión" dataDxfId="4"/>
-    <tableColumn id="5" name="Fecha de Modificación" dataDxfId="3"/>
-    <tableColumn id="6" name="Responsable" dataDxfId="2"/>
-    <tableColumn id="7" name="Hito" dataDxfId="1"/>
+    <tableColumn id="1" name="Nombre" dataDxfId="10"/>
+    <tableColumn id="2" name="Formato" dataDxfId="9"/>
+    <tableColumn id="3" name="Carpeta" dataDxfId="8"/>
+    <tableColumn id="4" name="Versión" dataDxfId="7"/>
+    <tableColumn id="5" name="Fecha de Modificación" dataDxfId="6"/>
+    <tableColumn id="6" name="Responsable" dataDxfId="5"/>
+    <tableColumn id="7" name="Hito" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="E11:J13" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="E11:J13" totalsRowShown="0" headerRowDxfId="3">
   <tableColumns count="6">
     <tableColumn id="1" name="Nombre"/>
     <tableColumn id="2" name="Carpeta"/>
     <tableColumn id="3" name="Versión"/>
-    <tableColumn id="4" name="Fecha de modificación" dataDxfId="10"/>
-    <tableColumn id="6" name="Hito" dataDxfId="9"/>
-    <tableColumn id="5" name="Avance" dataDxfId="8"/>
+    <tableColumn id="4" name="Fecha de modificación" dataDxfId="2"/>
+    <tableColumn id="6" name="Hito" dataDxfId="1"/>
+    <tableColumn id="5" name="Avance" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1723,12 +1738,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:L54"/>
+  <dimension ref="C3:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <pane ySplit="3000" topLeftCell="A40" activePane="bottomLeft"/>
-      <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <pane ySplit="3000" topLeftCell="A55" activePane="bottomLeft"/>
+      <selection activeCell="C31" sqref="C31:H31"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2757,6 +2772,69 @@
         <v>114</v>
       </c>
       <c r="I54" s="50"/>
+    </row>
+    <row r="55" spans="3:9">
+      <c r="C55" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H55" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I55" s="50"/>
+    </row>
+    <row r="56" spans="3:9">
+      <c r="C56" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" s="65">
+        <v>40299.458333333336</v>
+      </c>
+      <c r="H56" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I56" s="50"/>
+    </row>
+    <row r="57" spans="3:9">
+      <c r="C57" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" s="65">
+        <v>40299.445833333331</v>
+      </c>
+      <c r="H57" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I57" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -14,16 +14,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1. Documentos'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2. Aplicación'!$I$11:$J$13</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">'2. Aplicación'!$P$11:$P$12</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">'1. Documentos'!#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">'2. Aplicación'!$O$11:$O$12</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="2">'2. Aplicación'!$P$11:$P$12</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="132">
   <si>
     <t>SPMP</t>
   </si>
@@ -411,7 +411,16 @@
     <t>28/04/2010  08:53:00 p.m</t>
   </si>
   <si>
-    <t>SDD[Alimnova]Component ModelV0.2.0</t>
+    <t>DiagramaSecuencia</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]CobrarCoveV0.0.0</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]InitPartidaV0.0.0</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]SolicitarCobroV0.0.0</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1155,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -1351,8 +1360,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I57" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C17:I57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I59" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C17:I59"/>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
@@ -1384,7 +1393,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1674,7 +1683,7 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1738,15 +1747,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:L57"/>
+  <dimension ref="C3:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <pane ySplit="3000" topLeftCell="A55" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <pane ySplit="3000" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="C31" sqref="C31:H31"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="56.140625" style="1" bestFit="1" customWidth="1"/>
@@ -2294,7 +2303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:9" ht="45">
+    <row r="34" spans="3:9" ht="30">
       <c r="C34" s="63" t="s">
         <v>80</v>
       </c>
@@ -2817,24 +2826,72 @@
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D57" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>73</v>
-      </c>
       <c r="F57" s="7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G57" s="65">
         <v>40299.445833333331</v>
       </c>
-      <c r="H57" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="I57" s="50"/>
+      <c r="H57" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9">
+      <c r="C58" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="65">
+        <v>40299.445833333331</v>
+      </c>
+      <c r="H58" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9">
+      <c r="C59" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" s="65">
+        <v>40299.445833333331</v>
+      </c>
+      <c r="H59" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="50" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2882,6 +2939,7 @@
     <hyperlink ref="H48" location="'1. Documentos'!J7" display="Nestor Diazgranados"/>
     <hyperlink ref="H49:H50" location="'1. Documentos'!J7" display="Nestor Diazgranados"/>
     <hyperlink ref="H51" location="'1. Documentos'!J7" display="Nestor Diazgranados"/>
+    <hyperlink ref="H57:H59" location="'1. Documentos'!J7" display="Nestor Diazgranados"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -2901,7 +2959,7 @@
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -14,16 +14,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1. Documentos'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2. Aplicación'!$I$11:$J$13</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="2">'2. Aplicación'!$P$11:$P$12</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">'1. Documentos'!#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">'2. Aplicación'!$O$11:$O$12</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">'2. Aplicación'!$P$11:$P$12</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="133">
   <si>
     <t>SPMP</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>SDD[Alimnova]SolicitarCobroV0.0.0</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]InicializarPartidaV0.0.0</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1158,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -1360,8 +1363,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I59" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C17:I59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I60" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C17:I60"/>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
@@ -1393,7 +1396,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1683,7 +1686,7 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1747,15 +1750,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:L59"/>
+  <dimension ref="C3:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <pane ySplit="3000" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="C31" sqref="C31:H31"/>
-      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="56.140625" style="1" bestFit="1" customWidth="1"/>
@@ -2303,7 +2306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:9" ht="30">
+    <row r="34" spans="3:9" ht="45">
       <c r="C34" s="63" t="s">
         <v>80</v>
       </c>
@@ -2737,7 +2740,7 @@
         <v>114</v>
       </c>
       <c r="I52" s="50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="3:9">
@@ -2759,7 +2762,9 @@
       <c r="H53" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="I53" s="50"/>
+      <c r="I53" s="50" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" spans="3:9">
       <c r="C54" s="6" t="s">
@@ -2780,7 +2785,9 @@
       <c r="H54" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="I54" s="50"/>
+      <c r="I54" s="50" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="3:9">
       <c r="C55" s="6" t="s">
@@ -2801,7 +2808,9 @@
       <c r="H55" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="I55" s="50"/>
+      <c r="I55" s="50" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="9" t="s">
@@ -2822,7 +2831,9 @@
       <c r="H56" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="I56" s="50"/>
+      <c r="I56" s="50" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="6" t="s">
@@ -2890,6 +2901,29 @@
         <v>15</v>
       </c>
       <c r="I59" s="50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9">
+      <c r="C60" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60" s="65">
+        <v>40300.909722222219</v>
+      </c>
+      <c r="H60" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I60" s="50" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2959,7 +2993,7 @@
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="135">
   <si>
     <t>SPMP</t>
   </si>
@@ -423,7 +423,13 @@
     <t>SDD[Alimnova]SolicitarCobroV0.0.0</t>
   </si>
   <si>
-    <t>SDD[Alimnova]InicializarPartidaV0.0.0</t>
+    <t>02/05/2010  10:02:00 p.m</t>
+  </si>
+  <si>
+    <t>0.9.0</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]LineaBaseV0.9.0</t>
   </si>
 </sst>
 </file>
@@ -1752,10 +1758,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <pane ySplit="3000" topLeftCell="A46" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <pane ySplit="3000" topLeftCell="A44" activePane="bottomLeft"/>
       <selection activeCell="C31" sqref="C31:H31"/>
-      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2906,19 +2912,19 @@
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G60" s="65" t="s">
         <v>132</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G60" s="65">
-        <v>40300.909722222219</v>
       </c>
       <c r="H60" s="66" t="s">
         <v>114</v>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -14,16 +14,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1. Documentos'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2. Aplicación'!$I$11:$J$13</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">'2. Aplicación'!$P$11:$P$12</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">'1. Documentos'!#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">'2. Aplicación'!$O$11:$O$12</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="2">'2. Aplicación'!$P$11:$P$12</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="141">
   <si>
     <t>SPMP</t>
   </si>
@@ -430,6 +430,24 @@
   </si>
   <si>
     <t>SDD[Alimnova]LineaBaseV0.9.0</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]LineaBaseV1.1.0</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]SecuenciaCobrarCoverClienteV1.0.0</t>
+  </si>
+  <si>
+    <t>SDD Diagramas Diagramas Sec-Act</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]SecuenciaCobrarCoverServidorV1.0.0</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]SecuenciaIngresarPartidaClienteV1.0.0</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]SecuenciaIngresarPartidaServidorV1.0.0</t>
   </si>
 </sst>
 </file>
@@ -874,7 +892,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1162,9 +1180,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -1369,8 +1392,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I60" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C17:I60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C17:I68" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C17:I68"/>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
@@ -1402,7 +1425,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1692,7 +1715,7 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1756,15 +1779,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:L60"/>
+  <dimension ref="C3:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <pane ySplit="3000" topLeftCell="A44" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <pane ySplit="3000" topLeftCell="A53" activePane="bottomLeft"/>
       <selection activeCell="C31" sqref="C31:H31"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="56.140625" style="1" bestFit="1" customWidth="1"/>
@@ -2312,7 +2335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:9" ht="45">
+    <row r="34" spans="3:9" ht="30">
       <c r="C34" s="63" t="s">
         <v>80</v>
       </c>
@@ -2932,6 +2955,146 @@
       <c r="I60" s="50" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="61" spans="3:9">
+      <c r="C61" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" s="65">
+        <v>40301.9375</v>
+      </c>
+      <c r="H61" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9">
+      <c r="C62" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="65">
+        <v>40301.9375</v>
+      </c>
+      <c r="H62" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9">
+      <c r="C63" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="65">
+        <v>40301.9375</v>
+      </c>
+      <c r="H63" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9">
+      <c r="C64" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="65">
+        <v>40301.9375</v>
+      </c>
+      <c r="H64" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9">
+      <c r="C65" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="65">
+        <v>40301.9375</v>
+      </c>
+      <c r="H65" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9">
+      <c r="C66" s="8"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="16"/>
+    </row>
+    <row r="67" spans="3:9">
+      <c r="C67" s="8"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="16"/>
+    </row>
+    <row r="68" spans="3:9">
+      <c r="C68" s="9"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="87"/>
+      <c r="I68" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2980,6 +3143,11 @@
     <hyperlink ref="H49:H50" location="'1. Documentos'!J7" display="Nestor Diazgranados"/>
     <hyperlink ref="H51" location="'1. Documentos'!J7" display="Nestor Diazgranados"/>
     <hyperlink ref="H57:H59" location="'1. Documentos'!J7" display="Nestor Diazgranados"/>
+    <hyperlink ref="H61" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H62" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H63" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H64" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H65" location="'1. Documentos'!J6" display="Laura Arias"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -2999,7 +3167,7 @@
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="145">
   <si>
     <t>SPMP</t>
   </si>
@@ -454,6 +454,12 @@
   </si>
   <si>
     <t>Documento SDD</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]LineaBaseV1.5.0</t>
+  </si>
+  <si>
+    <t>1.5.0</t>
   </si>
 </sst>
 </file>
@@ -1066,6 +1072,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1078,6 +1088,22 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1086,6 +1112,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1094,35 +1129,6 @@
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1331,8 +1337,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I64" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C15:I64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I65" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C15:I65"/>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
@@ -1718,11 +1724,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:J64"/>
+  <dimension ref="C2:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8:G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="15" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1743,13 +1749,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="3:9">
       <c r="C3" s="63" t="s">
@@ -1758,33 +1764,33 @@
       <c r="D3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="4" spans="3:9">
       <c r="C4" s="64"/>
       <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="77"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="63" t="s">
@@ -1793,77 +1799,77 @@
       <c r="D6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="71"/>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="64"/>
       <c r="D7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="64"/>
       <c r="D8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="64"/>
       <c r="D9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="64"/>
       <c r="D10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="64"/>
       <c r="D11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="77"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="79" t="s">
+      <c r="E12" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="71"/>
     </row>
     <row r="13" spans="3:9">
       <c r="E13" s="29"/>
@@ -1871,15 +1877,15 @@
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="4" t="s">
@@ -3031,8 +3037,35 @@
         <v>2</v>
       </c>
     </row>
+    <row r="65" spans="3:9">
+      <c r="C65" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G65" s="59">
+        <v>40302.158333333333</v>
+      </c>
+      <c r="H65" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="58" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="C6:C12"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E6:G6"/>
@@ -3043,10 +3076,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H16:H17" location="'1. Documentos'!J9" display="William Jiménez"/>
@@ -3086,6 +3115,7 @@
     <hyperlink ref="D6" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="D9" location="'1. Documentos'!J9" display="William Jiménez"/>
     <hyperlink ref="D12" location="'1. Documentos'!D13" display="Alimnova®"/>
+    <hyperlink ref="H65" location="'1. Documentos'!J6" display="Laura Arias"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -3116,21 +3146,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="76" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="77" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="41">
@@ -3138,44 +3168,44 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="74"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="75"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="41">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="74"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="75"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="41">
         <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="74"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="75"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="E8" s="21" t="s">
@@ -3287,28 +3317,28 @@
       <c r="N12" s="40"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="L13" s="71" t="s">
+      <c r="L13" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="72" t="e">
+      <c r="M13" s="80" t="e">
         <f>SUM(N9:N12)</f>
         <v>#REF!</v>
       </c>
-      <c r="N13" s="72"/>
+      <c r="N13" s="80"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M13:N14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="E7:J7"/>
     <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:N14"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:J1048576 M13:N14">
     <cfRule type="dataBar" priority="6">

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="145">
   <si>
     <t>SPMP</t>
   </si>
@@ -1064,6 +1064,14 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1104,13 +1112,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1125,9 +1128,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1337,8 +1337,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I65" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C15:I65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I66" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C15:I66"/>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
@@ -1724,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:J65"/>
+  <dimension ref="C2:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="15" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
@@ -1749,127 +1749,127 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9">
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="3:9">
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="65" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="64"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="65"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="65" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="71"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="64"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="64"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="64"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="64"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="64"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="65"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="3:9">
       <c r="E13" s="29"/>
@@ -1877,15 +1877,15 @@
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="4" t="s">
@@ -3038,7 +3038,7 @@
       </c>
     </row>
     <row r="65" spans="3:9">
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D65" s="9" t="s">
@@ -3048,20 +3048,50 @@
         <v>142</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="G65" s="59">
-        <v>40302.158333333333</v>
-      </c>
-      <c r="H65" s="49" t="s">
-        <v>14</v>
+        <v>40302.883333333331</v>
+      </c>
+      <c r="H65" s="52" t="s">
+        <v>13</v>
       </c>
       <c r="I65" s="58" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="66" spans="3:9">
+      <c r="C66" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G66" s="59">
+        <v>40302.158333333333</v>
+      </c>
+      <c r="H66" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="E3:G3"/>
@@ -3069,13 +3099,6 @@
     <mergeCell ref="C6:C12"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H16:H17" location="'1. Documentos'!J9" display="William Jiménez"/>
@@ -3115,7 +3138,8 @@
     <hyperlink ref="D6" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="D9" location="'1. Documentos'!J9" display="William Jiménez"/>
     <hyperlink ref="D12" location="'1. Documentos'!D13" display="Alimnova®"/>
-    <hyperlink ref="H65" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H66" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H65" location="'1. Documentos'!J9" display="William Jiménez"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -3146,21 +3170,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="78" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="41">
@@ -3168,44 +3192,44 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="76"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="77"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="41">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="76"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="77"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="41">
         <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="76"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="77"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="E8" s="21" t="s">
@@ -3317,19 +3341,19 @@
       <c r="N12" s="40"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="L13" s="79" t="s">
+      <c r="L13" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="80" t="e">
+      <c r="M13" s="75" t="e">
         <f>SUM(N9:N12)</f>
         <v>#REF!</v>
       </c>
-      <c r="N13" s="80"/>
+      <c r="N13" s="75"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="148">
   <si>
     <t>SPMP</t>
   </si>
@@ -460,6 +460,15 @@
   </si>
   <si>
     <t>1.5.0</t>
+  </si>
+  <si>
+    <t>SRS[Alimnova]TrazabilidadRequerimientosV1.2.0</t>
+  </si>
+  <si>
+    <t>SRS[Alimnova]DescripciónRequerimientosFuncionalesV1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
   </si>
 </sst>
 </file>
@@ -1337,8 +1346,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I66" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C15:I66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I68" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C15:I68"/>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
@@ -1724,11 +1733,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:J66"/>
+  <dimension ref="C2:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <pane ySplit="15" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3076,11 +3085,57 @@
       <c r="G66" s="59">
         <v>40302.158333333333</v>
       </c>
-      <c r="H66" s="60" t="s">
+      <c r="H66" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I66" s="47" t="s">
+      <c r="I66" s="58" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9">
+      <c r="C67" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G67" s="59">
+        <v>40305.354166666664</v>
+      </c>
+      <c r="H67" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9">
+      <c r="C68" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G68" s="59">
+        <v>40305.359722222223</v>
+      </c>
+      <c r="H68" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="47" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3138,8 +3193,9 @@
     <hyperlink ref="D6" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="D9" location="'1. Documentos'!J9" display="William Jiménez"/>
     <hyperlink ref="D12" location="'1. Documentos'!D13" display="Alimnova®"/>
+    <hyperlink ref="H65" location="'1. Documentos'!J9" display="William Jiménez"/>
     <hyperlink ref="H66" location="'1. Documentos'!J6" display="Laura Arias"/>
-    <hyperlink ref="H65" location="'1. Documentos'!J9" display="William Jiménez"/>
+    <hyperlink ref="H67:H68" location="'1. Documentos'!J6" display="Laura Arias"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="4275" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="19260" windowHeight="4272" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="2" r:id="rId1"/>
@@ -14,16 +14,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1. Documentos'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2. Aplicación'!$I$8:$J$10</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="2">'2. Aplicación'!$P$8:$P$9</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">'1. Documentos'!#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">'2. Aplicación'!$O$8:$O$9</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">'2. Aplicación'!$P$8:$P$9</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="150">
   <si>
     <t>SPMP</t>
   </si>
@@ -469,6 +469,12 @@
   </si>
   <si>
     <t>1.1.2</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]DiagramasNegociarV0.3.0</t>
+  </si>
+  <si>
+    <t>0.3.0</t>
   </si>
 </sst>
 </file>
@@ -872,7 +878,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1073,6 +1079,22 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1105,22 +1127,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1139,9 +1145,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -1346,8 +1356,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I68" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C15:I68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I69" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C15:I69"/>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
@@ -1379,7 +1389,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1669,9 +1679,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:9" ht="15" customHeight="1">
@@ -1733,152 +1743,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:J68"/>
+  <dimension ref="C2:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="15" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="56.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="56.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="47.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:9">
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
     </row>
     <row r="3" spans="3:9">
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="69" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="66"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="67"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="70"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="69" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="66"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="66"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="66"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="66"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="66"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="73"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="67"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="73"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
     </row>
     <row r="13" spans="3:9">
       <c r="E13" s="29"/>
@@ -1886,15 +1896,15 @@
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="4" t="s">
@@ -2287,7 +2297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="30">
+    <row r="32" spans="3:9" ht="28.8">
       <c r="C32" s="57" t="s">
         <v>80</v>
       </c>
@@ -3138,8 +3148,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="69" spans="3:9">
+      <c r="C69" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G69" s="59">
+        <v>40305.745833333334</v>
+      </c>
+      <c r="H69" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="I69" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
@@ -3147,13 +3187,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H16:H17" location="'1. Documentos'!J9" display="William Jiménez"/>
@@ -3214,13 +3247,13 @@
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -3287,7 +3320,7 @@
       <c r="I7" s="79"/>
       <c r="J7" s="79"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="E8" s="21" t="s">
         <v>4</v>
       </c>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="154">
   <si>
     <t>SPMP</t>
   </si>
@@ -475,6 +475,18 @@
   </si>
   <si>
     <t>0.3.0</t>
+  </si>
+  <si>
+    <t>Trazabilidad</t>
+  </si>
+  <si>
+    <t>07/05/2010  06:18:00 p.m</t>
+  </si>
+  <si>
+    <t>SRS[Alimnova]TrazabilidadRequerimientosV1.3.0</t>
+  </si>
+  <si>
+    <t>1.3.0</t>
   </si>
 </sst>
 </file>
@@ -878,7 +890,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1079,54 +1091,54 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1144,10 +1156,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1356,8 +1364,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I69" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C15:I69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I70" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C15:I70"/>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
@@ -1743,11 +1751,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:J69"/>
+  <dimension ref="C2:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I69" sqref="I69"/>
+      <pane ySplit="15" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -1768,127 +1776,127 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9">
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="3:9">
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="65" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="70"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="71"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="65" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="70"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="70"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="70"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="70"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="70"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="71"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="3:9">
       <c r="E13" s="29"/>
@@ -1896,15 +1904,15 @@
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="4" t="s">
@@ -3164,15 +3172,45 @@
       <c r="G69" s="59">
         <v>40305.745833333334</v>
       </c>
-      <c r="H69" s="81" t="s">
-        <v>114</v>
+      <c r="H69" s="49" t="s">
+        <v>14</v>
       </c>
       <c r="I69" s="47" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="70" spans="3:9">
+      <c r="C70" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G70" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="H70" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="I70" s="47" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="E3:G3"/>
@@ -3180,13 +3218,6 @@
     <mergeCell ref="C6:C12"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H16:H17" location="'1. Documentos'!J9" display="William Jiménez"/>
@@ -3229,6 +3260,7 @@
     <hyperlink ref="H65" location="'1. Documentos'!J9" display="William Jiménez"/>
     <hyperlink ref="H66" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H67:H68" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H69" location="'1. Documentos'!J6" display="Laura Arias"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="157">
   <si>
     <t>SPMP</t>
   </si>
@@ -487,6 +487,15 @@
   </si>
   <si>
     <t>1.3.0</t>
+  </si>
+  <si>
+    <t>SPMS[Alimnova]LineaBase v3.1.0</t>
+  </si>
+  <si>
+    <t>3.1.0</t>
+  </si>
+  <si>
+    <t>SRS[Alimnova]LineaBaseV3.1.0</t>
   </si>
 </sst>
 </file>
@@ -1091,6 +1100,22 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1121,22 +1146,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1364,8 +1373,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I70" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C15:I70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I72" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C15:I72"/>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
@@ -1751,11 +1760,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:J70"/>
+  <dimension ref="C2:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="15" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -1776,127 +1785,127 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9">
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
     </row>
     <row r="3" spans="3:9">
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="69" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="66"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="67"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="70"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="69" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="66"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="66"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="66"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="66"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="66"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="73"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="67"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="73"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
     </row>
     <row r="13" spans="3:9">
       <c r="E13" s="29"/>
@@ -1904,15 +1913,15 @@
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="4" t="s">
@@ -3202,8 +3211,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="71" spans="3:9">
+      <c r="C71" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G71" s="59">
+        <v>40306.614583333336</v>
+      </c>
+      <c r="H71" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="I71" s="47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9">
+      <c r="C72" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G72" s="59">
+        <v>40307.615277777775</v>
+      </c>
+      <c r="H72" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
@@ -3211,13 +3273,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H16:H17" location="'1. Documentos'!J9" display="William Jiménez"/>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="160">
   <si>
     <t>SPMP</t>
   </si>
@@ -496,6 +496,15 @@
   </si>
   <si>
     <t>SRS[Alimnova]LineaBaseV3.1.0</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]DocumentacionPrototipo v.0.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDD Documento </t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]DiagramaClasesV0.8.0</t>
   </si>
 </sst>
 </file>
@@ -1373,8 +1382,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I72" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C15:I72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I74" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C15:I74"/>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
@@ -1760,11 +1769,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:J72"/>
+  <dimension ref="C2:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="15" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H73" sqref="H73:H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -3248,13 +3257,59 @@
         <v>155</v>
       </c>
       <c r="G72" s="59">
-        <v>40307.615277777775</v>
+        <v>40306.615277777775</v>
       </c>
       <c r="H72" s="60" t="s">
         <v>114</v>
       </c>
       <c r="I72" s="14" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9">
+      <c r="C73" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G73" s="59">
+        <v>40306.696527777778</v>
+      </c>
+      <c r="H73" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="I73" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9">
+      <c r="C74" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G74" s="59">
+        <v>40307.787499999999</v>
+      </c>
+      <c r="H74" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="I74" s="47" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="19260" windowHeight="4272" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="4275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="2" r:id="rId1"/>
@@ -14,16 +14,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1. Documentos'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2. Aplicación'!$I$8:$J$10</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">'2. Aplicación'!$P$8:$P$9</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">'1. Documentos'!#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">'2. Aplicación'!$O$8:$O$9</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="2">'2. Aplicación'!$P$8:$P$9</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="163">
   <si>
     <t>SPMP</t>
   </si>
@@ -505,6 +505,15 @@
   </si>
   <si>
     <t>SDD[Alimnova]DiagramaClasesV0.8.0</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]DiagramaClasesV0.9.0</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]SubastarServidorV0.3.1</t>
+  </si>
+  <si>
+    <t>0.3.1</t>
   </si>
 </sst>
 </file>
@@ -1109,54 +1118,54 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1177,7 +1186,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -1382,8 +1391,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I74" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C15:I74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I76" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C15:I76"/>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
@@ -1415,7 +1424,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1705,9 +1714,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:9" ht="15" customHeight="1">
@@ -1769,152 +1778,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:J74"/>
+  <dimension ref="C2:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H73" sqref="H73:H74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="15" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.44140625" style="1"/>
-    <col min="3" max="3" width="56.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="56.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="47.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:9">
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="3:9">
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="65" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="70"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="71"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="65" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="70"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="70"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="70"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="70"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="70"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="71"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="3:9">
       <c r="E13" s="29"/>
@@ -1922,15 +1931,15 @@
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="4" t="s">
@@ -2323,7 +2332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="28.8">
+    <row r="32" spans="3:9" ht="30">
       <c r="C32" s="57" t="s">
         <v>80</v>
       </c>
@@ -3193,7 +3202,7 @@
       <c r="H69" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I69" s="47" t="s">
+      <c r="I69" s="58" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3239,7 +3248,7 @@
       <c r="H71" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="I71" s="47" t="s">
+      <c r="I71" s="13" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3285,7 +3294,7 @@
       <c r="H73" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="I73" s="47" t="s">
+      <c r="I73" s="58" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3303,17 +3312,70 @@
         <v>125</v>
       </c>
       <c r="G74" s="59">
-        <v>40307.787499999999</v>
+        <v>40306.787499999999</v>
       </c>
       <c r="H74" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="I74" s="47" t="s">
+      <c r="I74" s="58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9">
+      <c r="C75" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G75" s="59">
+        <v>40306.959722222222</v>
+      </c>
+      <c r="H75" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9">
+      <c r="C76" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G76" s="59">
+        <v>40306.959027777775</v>
+      </c>
+      <c r="H76" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="58" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="E3:G3"/>
@@ -3321,13 +3383,6 @@
     <mergeCell ref="C6:C12"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H16:H17" location="'1. Documentos'!J9" display="William Jiménez"/>
@@ -3371,6 +3426,8 @@
     <hyperlink ref="H66" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H67:H68" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H69" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H75" location="'1. Documentos'!J9" display="William Jiménez"/>
+    <hyperlink ref="H76" location="'1. Documentos'!J9" display="William Jiménez"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -3389,13 +3446,13 @@
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -3462,7 +3519,7 @@
       <c r="I7" s="79"/>
       <c r="J7" s="79"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="E8" s="21" t="s">
         <v>4</v>
       </c>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="4275" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="19260" windowHeight="4272" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="2" r:id="rId1"/>
@@ -14,16 +14,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1. Documentos'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2. Aplicación'!$I$8:$J$10</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="2">'2. Aplicación'!$P$8:$P$9</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">'1. Documentos'!#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">'2. Aplicación'!$O$8:$O$9</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">'2. Aplicación'!$P$8:$P$9</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="170">
   <si>
     <t>SPMP</t>
   </si>
@@ -514,6 +514,27 @@
   </si>
   <si>
     <t>0.3.1</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]LineaBaseV1.7.0</t>
+  </si>
+  <si>
+    <t>1.7.0</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova] Diagrama de Actividad NegociarServidor</t>
+  </si>
+  <si>
+    <t>png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDD[Alimnova] Diagrama Negocio Secuencia Servidor </t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]Documentacion Diagrama Negociar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carpeta </t>
   </si>
 </sst>
 </file>
@@ -1118,6 +1139,22 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1150,22 +1187,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1186,7 +1207,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -1391,8 +1412,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I76" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C15:I76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I80" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C15:I80"/>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
@@ -1424,7 +1445,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1714,9 +1735,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:9" ht="15" customHeight="1">
@@ -1778,152 +1799,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:J76"/>
+  <dimension ref="C2:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="15" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I79" sqref="I79:I80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="56.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="56.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="47.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:9">
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
     </row>
     <row r="3" spans="3:9">
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="69" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="66"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="67"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="70"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="69" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="66"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="66"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="66"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="66"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="66"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="73"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="67"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="73"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
     </row>
     <row r="13" spans="3:9">
       <c r="E13" s="29"/>
@@ -1931,15 +1952,15 @@
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="4" t="s">
@@ -2332,7 +2353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="30">
+    <row r="32" spans="3:9" ht="28.8">
       <c r="C32" s="57" t="s">
         <v>80</v>
       </c>
@@ -3367,8 +3388,101 @@
         <v>2</v>
       </c>
     </row>
+    <row r="77" spans="3:9">
+      <c r="C77" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G77" s="59">
+        <v>40308.45208333333</v>
+      </c>
+      <c r="H77" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="I77" s="58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9">
+      <c r="C78" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F78" s="6"/>
+      <c r="G78" s="59">
+        <v>40308.45416666667</v>
+      </c>
+      <c r="H78" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="I78" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9">
+      <c r="C79" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F79" s="6"/>
+      <c r="G79" s="59">
+        <v>40308.45416666667</v>
+      </c>
+      <c r="H79" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="I79" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9">
+      <c r="C80" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F80" s="6"/>
+      <c r="G80" s="59">
+        <v>40308.45416666667</v>
+      </c>
+      <c r="H80" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="I80" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
@@ -3376,13 +3490,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H16:H17" location="'1. Documentos'!J9" display="William Jiménez"/>
@@ -3428,6 +3535,7 @@
     <hyperlink ref="H69" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H75" location="'1. Documentos'!J9" display="William Jiménez"/>
     <hyperlink ref="H76" location="'1. Documentos'!J9" display="William Jiménez"/>
+    <hyperlink ref="H77" location="'1. Documentos'!J6" display="Laura Arias"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -3446,13 +3554,13 @@
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -3519,7 +3627,7 @@
       <c r="I7" s="79"/>
       <c r="J7" s="79"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="E8" s="21" t="s">
         <v>4</v>
       </c>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="172">
   <si>
     <t>SPMP</t>
   </si>
@@ -535,6 +535,12 @@
   </si>
   <si>
     <t xml:space="preserve">carpeta </t>
+  </si>
+  <si>
+    <t>SRS[Alimnova]TrazabilidadRequerimientosV1.5.0</t>
+  </si>
+  <si>
+    <t>10/05/2010  01:06:00 p.m</t>
   </si>
 </sst>
 </file>
@@ -1139,52 +1145,52 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1412,8 +1418,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I80" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C15:I80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I81" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C15:I81"/>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
@@ -1799,11 +1805,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:J80"/>
+  <dimension ref="C2:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I79" sqref="I79:I80"/>
+      <pane ySplit="15" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -1824,127 +1830,127 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9">
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="3:9">
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="65" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="70"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="71"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="65" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="70"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="70"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="70"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="70"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="70"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="71"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="3:9">
       <c r="E13" s="29"/>
@@ -1952,15 +1958,15 @@
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="4" t="s">
@@ -3474,8 +3480,38 @@
         <v>2</v>
       </c>
     </row>
+    <row r="81" spans="3:9">
+      <c r="C81" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G81" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="H81" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="I81" s="47" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="E3:G3"/>
@@ -3483,13 +3519,6 @@
     <mergeCell ref="C6:C12"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H16:H17" location="'1. Documentos'!J9" display="William Jiménez"/>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="174">
   <si>
     <t>SPMP</t>
   </si>
@@ -541,6 +541,12 @@
   </si>
   <si>
     <t>10/05/2010  01:06:00 p.m</t>
+  </si>
+  <si>
+    <t>SDD[Alimnova]LineaBaseV1.9.0</t>
+  </si>
+  <si>
+    <t>1.9.0</t>
   </si>
 </sst>
 </file>
@@ -1145,6 +1151,22 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1175,22 +1197,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1418,8 +1424,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I81" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="C15:I81"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="C15:I82" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="C15:I82"/>
   <sortState ref="C17:I24">
     <sortCondition descending="1" ref="G16:G24"/>
   </sortState>
@@ -1805,11 +1811,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:J81"/>
+  <dimension ref="C2:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="15" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -1830,127 +1836,127 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9">
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
     </row>
     <row r="3" spans="3:9">
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="69" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="66"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="67"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="70"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="69" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="66"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="66"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="66"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="66"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="66"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="73"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="67"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="73"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
     </row>
     <row r="13" spans="3:9">
       <c r="E13" s="29"/>
@@ -1958,15 +1964,15 @@
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="4" t="s">
@@ -3503,8 +3509,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="82" spans="3:9">
+      <c r="C82" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G82" s="59">
+        <v>40299</v>
+      </c>
+      <c r="H82" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="I82" s="47" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
@@ -3512,13 +3548,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H16:H17" location="'1. Documentos'!J9" display="William Jiménez"/>

--- a/trunk/Org. Interna/configuracion y versionamiento.xlsx
+++ b/trunk/Org. Interna/configuracion y versionamiento.xlsx
@@ -1151,52 +1151,52 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1813,9 +1813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="15" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
+      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -1836,127 +1836,127 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9">
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="3:9">
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="65" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="70"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="71"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="65" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="70"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="70"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="70"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="70"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="70"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="71"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="3:9">
       <c r="E13" s="29"/>
@@ -1964,15 +1964,15 @@
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="4" t="s">
@@ -3286,43 +3286,43 @@
       </c>
     </row>
     <row r="72" spans="3:9">
-      <c r="C72" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="D72" s="9" t="s">
+      <c r="C72" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>155</v>
+      <c r="E72" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="G72" s="59">
-        <v>40306.615277777775</v>
+        <v>40306.696527777778</v>
       </c>
       <c r="H72" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="I72" s="14" t="s">
-        <v>1</v>
+      <c r="I72" s="58" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="3:9">
       <c r="C73" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="G73" s="59">
-        <v>40306.696527777778</v>
+        <v>40306.787499999999</v>
       </c>
       <c r="H73" s="60" t="s">
         <v>114</v>
@@ -3332,8 +3332,8 @@
       </c>
     </row>
     <row r="74" spans="3:9">
-      <c r="C74" s="5" t="s">
-        <v>159</v>
+      <c r="C74" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="D74" s="27" t="s">
         <v>89</v>
@@ -3342,13 +3342,13 @@
         <v>90</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G74" s="59">
-        <v>40306.787499999999</v>
-      </c>
-      <c r="H74" s="60" t="s">
-        <v>114</v>
+        <v>40306.959722222222</v>
+      </c>
+      <c r="H74" s="52" t="s">
+        <v>13</v>
       </c>
       <c r="I74" s="58" t="s">
         <v>2</v>
@@ -3356,19 +3356,19 @@
     </row>
     <row r="75" spans="3:9">
       <c r="C75" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D75" s="27" t="s">
         <v>89</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="G75" s="59">
-        <v>40306.959722222222</v>
+        <v>40306.959027777775</v>
       </c>
       <c r="H75" s="52" t="s">
         <v>13</v>
@@ -3378,23 +3378,23 @@
       </c>
     </row>
     <row r="76" spans="3:9">
-      <c r="C76" s="8" t="s">
-        <v>161</v>
+      <c r="C76" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G76" s="59">
-        <v>40306.959027777775</v>
-      </c>
-      <c r="H76" s="52" t="s">
-        <v>13</v>
+        <v>40308.45208333333</v>
+      </c>
+      <c r="H76" s="49" t="s">
+        <v>114</v>
       </c>
       <c r="I76" s="58" t="s">
         <v>2</v>
@@ -3402,30 +3402,28 @@
     </row>
     <row r="77" spans="3:9">
       <c r="C77" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>164</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F77" s="6"/>
       <c r="G77" s="59">
-        <v>40308.45208333333</v>
+        <v>40308.45416666667</v>
       </c>
       <c r="H77" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="I77" s="58" t="s">
+      <c r="I77" s="47" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="3:9">
       <c r="C78" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>166</v>
@@ -3437,7 +3435,7 @@
       <c r="G78" s="59">
         <v>40308.45416666667</v>
       </c>
-      <c r="H78" s="49" t="s">
+      <c r="H78" s="60" t="s">
         <v>114</v>
       </c>
       <c r="I78" s="47" t="s">
@@ -3445,14 +3443,14 @@
       </c>
     </row>
     <row r="79" spans="3:9">
-      <c r="C79" s="5" t="s">
-        <v>167</v>
+      <c r="C79" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="59">
@@ -3466,74 +3464,83 @@
       </c>
     </row>
     <row r="80" spans="3:9">
-      <c r="C80" s="8" t="s">
-        <v>168</v>
+      <c r="C80" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="F80" s="6"/>
-      <c r="G80" s="59">
-        <v>40308.45416666667</v>
+        <v>150</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G80" s="59" t="s">
+        <v>171</v>
       </c>
       <c r="H80" s="60" t="s">
         <v>114</v>
       </c>
       <c r="I80" s="47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="3:9">
-      <c r="C81" s="5" t="s">
-        <v>170</v>
+      <c r="C81" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G81" s="59" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="G81" s="59">
+        <v>40299</v>
       </c>
       <c r="H81" s="60" t="s">
         <v>114</v>
       </c>
       <c r="I81" s="47" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="3:9">
       <c r="C82" s="8" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D82" s="27" t="s">
         <v>40</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="G82" s="59">
-        <v>40299</v>
+        <v>40331.697222222225</v>
       </c>
       <c r="H82" s="60" t="s">
         <v>114</v>
       </c>
       <c r="I82" s="47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="E3:G3"/>
@@ -3541,13 +3548,6 @@
     <mergeCell ref="C6:C12"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H16:H17" location="'1. Documentos'!J9" display="William Jiménez"/>
@@ -3591,9 +3591,9 @@
     <hyperlink ref="H66" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H67:H68" location="'1. Documentos'!J6" display="Laura Arias"/>
     <hyperlink ref="H69" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H74" location="'1. Documentos'!J9" display="William Jiménez"/>
     <hyperlink ref="H75" location="'1. Documentos'!J9" display="William Jiménez"/>
-    <hyperlink ref="H76" location="'1. Documentos'!J9" display="William Jiménez"/>
-    <hyperlink ref="H77" location="'1. Documentos'!J6" display="Laura Arias"/>
+    <hyperlink ref="H76" location="'1. Documentos'!J6" display="Laura Arias"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
